--- a/biology/Botanique/Jardin_botanique_Alexandru_Borza/Jardin_botanique_Alexandru_Borza.xlsx
+++ b/biology/Botanique/Jardin_botanique_Alexandru_Borza/Jardin_botanique_Alexandru_Borza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique Alexandru Borza (en roumain Grădina botanică « Alexandru Borza ») de l'Université Babeș-Bolyai de Cluj, en Roumanie, occupe presque 14 hectares situés dans la partie méridionale du centre-ville de Cluj. Fondé en 1872 par Sámuel Brassai, le jardin s'est développé au fil des années non seulement en tant qu'espace scientifique et pédagogique de l'université, mais aussi comme lieu de promenade et attrait touristique de la ville.
 Le jardin comprend plus de 10 000 espèces de plantes originaires du monde entier, un jardin japonais, un arboretum et des serres. Il comporte une collection particulièrement riche de la végétation de Roumanie, sous forme vivante, en herbiers et en carpothèque.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sámuel Brassai fonda le jardin en 1872 sur le domaine du comte Imre Mikó, un noble hongrois qui en fit don à la société savante des Amis des Musées transylvains, rattachée ensuite à l'université François-Joseph de Cluj. Le domaine comptait aussi le manoir du comte Mikó, qui abrita les collections.
 Les directeurs furent successivement les professeurs botanistes Ágost Kanitz (1872-1896), Gyula Istvánffi (1897-1901), Aladár Richter, Vincze von Borbás, Béla Páter, István Győrffy, puis, après la dislocation de l'Autriche-Hongrie à l'issue de la Première Guerre mondiale et le rattachement de Cluj à la Roumanie, Alexandru Borza (en) à partir de 1920. Il appelle à ses côtés en 1922 le botaniste Erasmus Julius Nyárády.
